--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n12_d10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n12_d10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08108806610107422</v>
+        <v>0.2049160003662109</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0119941234588623</v>
+        <v>0.02120399475097656</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008031845092773438</v>
+        <v>0.0166771411895752</v>
       </c>
     </row>
     <row r="8">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.4032287081980117</v>
+        <v>0.4031706474445058</v>
       </c>
     </row>
     <row r="199">
@@ -1862,116 +1862,126 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>8990.753450615262</v>
+        <v>9206.753450615262</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>8</v>
+        <v>0.9995106334760642</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.1091721057891846</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.27052903175354</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr">
+      <c r="L205" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr">
+      <c r="M205" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr">
+      <c r="N205" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n12_d10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n12_d10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2049160003662109</v>
+        <v>0.0008761882781982422</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02120399475097656</v>
+        <v>0.0005943775177001953</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0166771411895752</v>
+        <v>0.01533794403076172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (0, 3), (0, 0), (0, 2), (1, 1), (1, 0), (2, 2), (1, 2), (2, 0), (2, 3), (2, 1), (1, 3)]</t>
+          <t>[[0, 1], [0, 3], [0, 0], [0, 2], [1, 1], [1, 0], [2, 2], [1, 2], [2, 0], [2, 3], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[(1, 3), (1, 0), (2, 0), (2, 3), (0, 0), (0, 3), (2, 2), (2, 1), (0, 1), (1, 2), (1, 1), (0, 2)]</t>
+          <t>[[1, 3], [1, 0], [2, 0], [2, 3], [0, 0], [0, 3], [2, 2], [2, 1], [0, 1], [1, 2], [1, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.27052903175354</v>
+        <v>0.02734112739562988</v>
       </c>
     </row>
     <row r="205">
